--- a/metrics/R2/upto time/Retinopatía proliferativa (UPTO).xlsx
+++ b/metrics/R2/upto time/Retinopatía proliferativa (UPTO).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7854490203321433</v>
+        <v>0.7367680929945378</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7854490203321431</v>
+        <v>0.7367680929945378</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7854490203321431</v>
+        <v>0.7367680929945378</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9944124371776082</v>
+        <v>0.9687151791563685</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9943519185681209</v>
+        <v>0.9688267831617522</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9942742437390432</v>
+        <v>0.9691891905693331</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9927649286668606</v>
+        <v>0.9528325644933182</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9928265691499165</v>
+        <v>0.9508951466751078</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9927626618326534</v>
+        <v>0.9532372387175918</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9743579054866505</v>
+        <v>0.9616066015163107</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9752615379504469</v>
+        <v>0.9563326250673709</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9731007851231741</v>
+        <v>0.9608348304502875</v>
       </c>
     </row>
   </sheetData>
